--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Time Machine/OneDrive - Vocational Training Council - Student/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{15F88B1E-B7F1-8344-9291-9AF3073E54B9}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9C89184-9E47-4942-82DC-233C6BC0AAC8}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="480" windowWidth="19200" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>項目</t>
   </si>
@@ -52,10 +53,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Raspberryy pi 3B+</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ALFA AWUS036NHA</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -87,6 +84,18 @@
   </si>
   <si>
     <t>Battery*2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADS1115</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ-2 Gas Sensor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raspberry pi 3B+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +694,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -712,7 +721,7 @@
     <row r="3" spans="2:4" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3750</v>
+        <v>3770</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -740,7 +749,7 @@
     </row>
     <row r="7" spans="2:4" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C7" s="16">
         <v>275</v>
@@ -749,7 +758,7 @@
     </row>
     <row r="8" spans="2:4" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="16">
         <v>360</v>
@@ -758,7 +767,7 @@
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1">
       <c r="B9" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="16">
         <v>50</v>
@@ -766,7 +775,7 @@
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1">
       <c r="B10" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="16">
         <v>160</v>
@@ -774,7 +783,7 @@
     </row>
     <row r="11" spans="2:4" ht="30" customHeight="1">
       <c r="B11" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="16">
         <v>45</v>
@@ -782,7 +791,7 @@
     </row>
     <row r="12" spans="2:4" ht="30" customHeight="1">
       <c r="B12" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="16">
         <v>430</v>
@@ -790,7 +799,7 @@
     </row>
     <row r="13" spans="2:4" ht="30" customHeight="1">
       <c r="B13" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="16">
         <v>105</v>
@@ -798,7 +807,7 @@
     </row>
     <row r="14" spans="2:4" ht="30" customHeight="1">
       <c r="B14" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="16">
         <v>20</v>
@@ -806,7 +815,7 @@
     </row>
     <row r="15" spans="2:4" ht="30" customHeight="1">
       <c r="B15" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="17">
         <v>90</v>
@@ -814,19 +823,27 @@
     </row>
     <row r="16" spans="2:4" ht="30" customHeight="1">
       <c r="B16" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="16">
         <v>800</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="16">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="16">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
       <c r="B19" s="15"/>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wing199901/OneDrive - Vocational Training Council/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9C89184-9E47-4942-82DC-233C6BC0AAC8}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A85636E-7303-9F48-8D3A-00E276D631B5}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="480" windowWidth="19200" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>項目</t>
   </si>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>Raspberry pi 3B+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +698,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -721,7 +725,7 @@
     <row r="3" spans="2:4" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3770</v>
+        <v>3920</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -846,8 +850,12 @@
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
-      <c r="B19" s="15"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="16">
+        <v>150</v>
+      </c>
     </row>
     <row r="20" spans="2:3" ht="30" customHeight="1">
       <c r="B20" s="15"/>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wing199901/OneDrive - Vocational Training Council/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6A85636E-7303-9F48-8D3A-00E276D631B5}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B04FE28C-45C9-794F-BE4D-428DF3FC60B7}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="480" windowWidth="19200" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>項目</t>
   </si>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>UV Sensor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>湿度|温度|气压|光线|手势|接近|颜色 Sensor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -697,8 +693,8 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -725,7 +721,7 @@
     <row r="3" spans="2:4" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3920</v>
+        <v>3830</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -753,7 +749,7 @@
     </row>
     <row r="7" spans="2:4" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="16">
         <v>275</v>
@@ -818,16 +814,12 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="30" customHeight="1">
-      <c r="B15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="17">
-        <v>90</v>
-      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="2:4" ht="30" customHeight="1">
       <c r="B16" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="16">
         <v>800</v>
@@ -835,7 +827,7 @@
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1">
       <c r="B17" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="16">
         <v>10</v>
@@ -843,7 +835,7 @@
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1">
       <c r="B18" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="16">
         <v>10</v>
@@ -851,7 +843,7 @@
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
       <c r="B19" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="16">
         <v>150</v>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Time Machine/OneDrive - Vocational Training Council - Student/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B04FE28C-45C9-794F-BE4D-428DF3FC60B7}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{21276B63-1EEE-3943-B0ED-C10F27477567}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="480" windowWidth="19200" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="440" windowWidth="19200" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>項目</t>
   </si>
@@ -57,9 +57,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>电流计</t>
-  </si>
-  <si>
     <t>Motor and ESC set</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -68,34 +65,35 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>PM2.5 Sensor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UV Sensor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battery*2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ-2 Gas Sensor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raspberry pi 3B+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>Optical Flow Sensor</t>
-  </si>
-  <si>
-    <t>PM2.5 Sensor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>UV Sensor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Battery*2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADS1115</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MQ-2 Gas Sensor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raspberry pi 3B+</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Camera</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DHT22 temperature-humidity sensor </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +692,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -721,7 +719,7 @@
     <row r="3" spans="2:4" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3830</v>
+        <v>3656</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -743,13 +741,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="16">
-        <v>1415</v>
+        <v>1290</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="2:4" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C7" s="16">
         <v>275</v>
@@ -766,16 +764,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1">
-      <c r="B9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="16">
-        <v>50</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1">
       <c r="B10" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="16">
         <v>160</v>
@@ -783,7 +777,7 @@
     </row>
     <row r="11" spans="2:4" ht="30" customHeight="1">
       <c r="B11" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="16">
         <v>45</v>
@@ -791,7 +785,7 @@
     </row>
     <row r="12" spans="2:4" ht="30" customHeight="1">
       <c r="B12" s="15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="16">
         <v>430</v>
@@ -799,7 +793,7 @@
     </row>
     <row r="13" spans="2:4" ht="30" customHeight="1">
       <c r="B13" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" s="16">
         <v>105</v>
@@ -807,43 +801,43 @@
     </row>
     <row r="14" spans="2:4" ht="30" customHeight="1">
       <c r="B14" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="30" customHeight="1">
-      <c r="B15" s="15"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="17">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="30" customHeight="1">
       <c r="B16" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="16">
         <v>800</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1">
-      <c r="B17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16">
-        <v>10</v>
-      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1">
       <c r="B18" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" s="16">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30" customHeight="1">
       <c r="B19" s="15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="16">
         <v>150</v>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Time Machine/OneDrive - Vocational Training Council - Student/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{21276B63-1EEE-3943-B0ED-C10F27477567}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66859F76-C68C-4A4A-9D42-879F4F5F1723}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="440" windowWidth="19200" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="清單" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -719,7 +719,7 @@
     <row r="3" spans="2:4" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3656</v>
+        <v>3696</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="16">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="D6" s="4"/>
     </row>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{66859F76-C68C-4A4A-9D42-879F4F5F1723}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDA616D8-46F6-EB48-A7C5-484BF93E5571}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>項目</t>
   </si>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t xml:space="preserve">DHT22 temperature-humidity sensor </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPS fold stand</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arm LED*2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -691,8 +699,8 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -719,7 +727,7 @@
     <row r="3" spans="2:4" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3696</v>
+        <v>3730</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -764,8 +772,12 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="2:4" ht="30" customHeight="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="16">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:4" ht="30" customHeight="1">
       <c r="B10" s="15" t="s">
@@ -824,8 +836,12 @@
       </c>
     </row>
     <row r="17" spans="2:3" ht="30" customHeight="1">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="16">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="30" customHeight="1">
       <c r="B18" s="15" t="s">

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDA616D8-46F6-EB48-A7C5-484BF93E5571}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C813B3B6-A1F1-D145-A867-DBD6E9D5D238}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>項目</t>
   </si>
@@ -102,6 +102,10 @@
   </si>
   <si>
     <t>Arm LED*2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy later</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +701,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D20"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -712,30 +716,33 @@
     <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="41.25" customHeight="1">
+    <row r="1" spans="2:5" ht="41.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="2:4" s="7" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="2:5" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="2:4" s="7" customFormat="1" ht="39" customHeight="1">
+    <row r="3" spans="2:5" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
         <v>3730</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:4" s="7" customFormat="1" ht="7.5" customHeight="1">
+      <c r="C3" s="16">
+        <f>SUMIF(E6:E19,"",C6:C19)</f>
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="7" customFormat="1" ht="7.5" customHeight="1">
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1">
+    <row r="5" spans="2:5" ht="30" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -744,7 +751,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1">
+    <row r="6" spans="2:5" ht="30" customHeight="1">
       <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
@@ -753,7 +760,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1">
+    <row r="7" spans="2:5" ht="30" customHeight="1">
       <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
@@ -762,7 +769,7 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1">
+    <row r="8" spans="2:5" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -770,40 +777,55 @@
         <v>360</v>
       </c>
       <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1">
+      <c r="E8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="30" customHeight="1">
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1">
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="30" customHeight="1">
       <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="16">
         <v>160</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="30" customHeight="1">
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" customHeight="1">
       <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="16">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1">
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="30" customHeight="1">
       <c r="B12" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="16">
         <v>430</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1">
+      <c r="E12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="30" customHeight="1">
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -811,7 +833,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1">
+    <row r="14" spans="2:5" ht="30" customHeight="1">
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
@@ -819,7 +841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1">
+    <row r="15" spans="2:5" ht="30" customHeight="1">
       <c r="B15" s="15" t="s">
         <v>15</v>
       </c>
@@ -827,23 +849,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1">
+    <row r="16" spans="2:5" ht="30" customHeight="1">
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="16">
         <v>800</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="30" customHeight="1">
+      <c r="E16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1">
       <c r="B17" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="16">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="30" customHeight="1">
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1">
       <c r="B18" s="15" t="s">
         <v>11</v>
       </c>
@@ -851,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="30" customHeight="1">
+    <row r="19" spans="2:5" ht="30" customHeight="1">
       <c r="B19" s="15" t="s">
         <v>13</v>
       </c>
@@ -859,7 +887,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="30" customHeight="1">
+    <row r="20" spans="2:5" ht="30" customHeight="1">
       <c r="B20" s="15"/>
       <c r="C20" s="12"/>
     </row>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C813B3B6-A1F1-D145-A867-DBD6E9D5D238}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8CBC999-CB63-7043-AB60-A0B6760949C9}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>項目</t>
   </si>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>MQ-2 Gas Sensor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Raspberry pi 3B+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">DHT22 temperature-humidity sensor </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>GPS fold stand</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -106,6 +98,14 @@
   </si>
   <si>
     <t>Buy later</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bought</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHT22 temperature-humidity sensor &amp; MQ-2 Gas Sensor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +218,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -303,8 +309,23 @@
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -701,10 +722,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:E20"/>
+  <dimension ref="B1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -716,33 +737,33 @@
     <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="41.25" customHeight="1">
+    <row r="1" spans="2:6" ht="41.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="2:5" s="7" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="2:6" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="2:5" s="7" customFormat="1" ht="39" customHeight="1">
+    <row r="3" spans="2:6" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="C3" s="16">
         <f>SUMIF(E6:E19,"",C6:C19)</f>
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="7" customFormat="1" ht="7.5" customHeight="1">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="7" customFormat="1" ht="7.5" customHeight="1">
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1">
+    <row r="5" spans="2:6" ht="30" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -751,25 +772,33 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="2:6" ht="30" customHeight="1">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <v>1330</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1">
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1">
+      <c r="B7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="18">
         <v>275</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
@@ -778,21 +807,21 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1">
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="16">
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1">
       <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
@@ -800,10 +829,10 @@
         <v>160</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1">
       <c r="B11" s="15" t="s">
         <v>7</v>
       </c>
@@ -811,21 +840,21 @@
         <v>45</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1">
       <c r="B12" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="16">
         <v>430</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1">
       <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
@@ -833,23 +862,33 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="30" customHeight="1">
-      <c r="B14" s="15" t="s">
+    <row r="14" spans="2:6" ht="30" customHeight="1">
+      <c r="B14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="30" customHeight="1">
-      <c r="B15" s="15" t="s">
+      <c r="C14" s="18">
         <v>15</v>
       </c>
-      <c r="C15" s="17">
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" customHeight="1">
+    <row r="15" spans="2:6" ht="30" customHeight="1">
+      <c r="B15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="21">
+        <v>25</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1">
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
@@ -857,37 +896,38 @@
         <v>800</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" customHeight="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1">
       <c r="B17" s="15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="16">
         <v>19</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="30" customHeight="1">
-      <c r="B18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="30" customHeight="1">
-      <c r="B19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1">
+      <c r="B19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="18">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="30" customHeight="1">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1">
       <c r="B20" s="15"/>
       <c r="C20" s="12"/>
     </row>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8CBC999-CB63-7043-AB60-A0B6760949C9}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36794DF9-2944-7A4B-91E6-121E54917886}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>項目</t>
   </si>
@@ -725,7 +725,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="C3" s="16">
         <f>SUMIF(E6:E19,"",C6:C19)</f>
-        <v>1900</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="7" customFormat="1" ht="7.5" customHeight="1">
@@ -806,9 +806,6 @@
         <v>360</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1">
       <c r="B9" s="15" t="s">

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{36794DF9-2944-7A4B-91E6-121E54917886}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECBDE82E-E1E7-6B43-8C6D-E21AF59E6794}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">清單!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>項目</t>
   </si>
@@ -259,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -326,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -725,7 +729,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -752,11 +756,11 @@
     <row r="3" spans="2:6" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3729</v>
+        <v>3739</v>
       </c>
       <c r="C3" s="16">
         <f>SUMIF(E6:E19,"",C6:C19)</f>
-        <v>2260</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="7" customFormat="1" ht="7.5" customHeight="1">
@@ -799,13 +803,17 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="16">
-        <v>360</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="18">
+        <v>370</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="23" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1">
       <c r="B9" s="15" t="s">

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -19,7 +19,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">清單!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -729,7 +728,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECBDE82E-E1E7-6B43-8C6D-E21AF59E6794}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B2865AF-2912-554A-BC71-858AC984D0F8}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -330,6 +330,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -728,7 +729,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -737,7 +738,9 @@
     <col min="2" max="2" width="28.83203125" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="5" max="5" width="9.1640625" style="4"/>
+    <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="41.25" customHeight="1">
@@ -757,7 +760,8 @@
         <f>SUM(List[費用])</f>
         <v>3739</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="16"/>
+      <c r="F3" s="24">
         <f>SUMIF(E6:E19,"",C6:C19)</f>
         <v>2270</v>
       </c>

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3B2865AF-2912-554A-BC71-858AC984D0F8}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FC729E9-7F6C-4949-BAEE-9C138F79C123}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>項目</t>
   </si>
@@ -106,6 +106,14 @@
   </si>
   <si>
     <t>DHT22 temperature-humidity sensor &amp; MQ-2 Gas Sensor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipping Fee</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shipping</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +245,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -259,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,6 +345,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="一般" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -729,7 +755,7 @@
   <dimension ref="B1:F20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
@@ -758,12 +784,12 @@
     <row r="3" spans="2:6" s="7" customFormat="1" ht="39" customHeight="1">
       <c r="B3" s="14">
         <f>SUM(List[費用])</f>
-        <v>3739</v>
+        <v>3765</v>
       </c>
       <c r="C3" s="16"/>
       <c r="F3" s="24">
         <f>SUMIF(E6:E19,"",C6:C19)</f>
-        <v>2270</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="7" customFormat="1" ht="7.5" customHeight="1">
@@ -863,11 +889,16 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16">
-        <v>105</v>
+      <c r="C13" s="18">
+        <v>111</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1">
@@ -919,8 +950,17 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="26">
+        <v>20</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
       <c r="B19" s="17" t="s">

--- a/Purchase List.xlsx
+++ b/Purchase List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/180042945_stu_vtc_edu_hk/Documents/FYP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2FC729E9-7F6C-4949-BAEE-9C138F79C123}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="8_{80112A13-A012-7342-A711-B4E7EA5B3487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8F0E66E1-6059-5E41-82B5-58CF4DEF73B8}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>項目</t>
   </si>
@@ -97,23 +99,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Buy later</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bought</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DHT22 temperature-humidity sensor &amp; MQ-2 Gas Sensor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Shipping Fee</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Shipping</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Canceled)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Not Used)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>not bought</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> MQ-2 Gas Sensor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DHT22 temperature-humidity sensor </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F450 Stand</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(broke)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -121,13 +143,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;HK$&quot;* #,##0.00_);_(&quot;HK$&quot;* \(#,##0.00\);_(&quot;HK$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="177" formatCode="&quot;NT$&quot;#,##0.00;[Red]&quot;NT$&quot;#,##0.00"/>
     <numFmt numFmtId="178" formatCode="_([$HK$-C04]* #,##0.00_);_([$HK$-C04]* \(#,##0.00\);_([$HK$-C04]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
@@ -225,8 +246,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Microsoft JhengHei UI"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -273,7 +305,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -308,18 +340,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -337,12 +363,6 @@
     </xf>
     <xf numFmtId="178" fontId="7" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -356,6 +376,45 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -527,8 +586,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="B5:C20" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
-  <autoFilter ref="B5:C20" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="B5:C21" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
+  <autoFilter ref="B5:C21" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
   </autoFilter>
@@ -752,51 +811,51 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" style="4"/>
     <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="41.25" customHeight="1">
+    <row r="1" spans="2:8" ht="41.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="2:6" s="7" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="2:8" s="7" customFormat="1" ht="26.25" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="2:6" s="7" customFormat="1" ht="39" customHeight="1">
-      <c r="B3" s="14">
+    <row r="3" spans="2:8" s="7" customFormat="1" ht="39" customHeight="1">
+      <c r="B3" s="13">
         <f>SUM(List[費用])</f>
-        <v>3765</v>
-      </c>
-      <c r="C3" s="16"/>
-      <c r="F3" s="24">
-        <f>SUMIF(E6:E19,"",C6:C19)</f>
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" s="7" customFormat="1" ht="7.5" customHeight="1">
+        <v>2486</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="F3" s="20">
+        <f>SUMIF(E6:E15,"",C6:C15)</f>
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" s="7" customFormat="1" ht="7.5" customHeight="1">
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1">
+    <row r="5" spans="2:8" ht="30" customHeight="1">
       <c r="B5" s="9" t="s">
         <v>0</v>
       </c>
@@ -805,179 +864,232 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:8" ht="30" customHeight="1">
+      <c r="B6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="22">
         <v>1330</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1">
+      <c r="B7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="22">
+        <v>275</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1">
+      <c r="B8" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="22">
+        <v>370</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1">
+      <c r="B9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="22">
+        <v>160</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="30" customHeight="1">
+      <c r="B10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="22">
+        <v>45</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1">
+      <c r="B11" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="22">
+        <v>111</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30" customHeight="1">
+      <c r="B12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="36">
+        <v>15</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="30" customHeight="1">
+      <c r="B13" s="21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1">
-      <c r="B7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18">
-        <v>275</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1">
-      <c r="B8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="18">
-        <v>370</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1">
-      <c r="B9" s="15" t="s">
+      <c r="C13" s="22">
+        <v>20</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" customHeight="1">
+      <c r="B14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="22">
+        <v>150</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" spans="2:8" ht="30" customHeight="1">
+      <c r="B15" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="37">
+        <v>10</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1">
+      <c r="B22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C22" s="16">
         <v>15</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1">
-      <c r="B10" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16">
-        <v>160</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="G22" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1">
+      <c r="B23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="26">
+        <v>15</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1">
-      <c r="B11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16">
-        <v>45</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="G23" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1">
+      <c r="B24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1">
-      <c r="B12" s="15" t="s">
+      <c r="G24" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1">
+      <c r="B25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C25" s="31">
         <v>430</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1">
-      <c r="B13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="18">
-        <v>111</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1">
-      <c r="B14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="D25" s="32"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1">
+      <c r="B26" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="31">
+        <v>800</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1">
+      <c r="B27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1">
-      <c r="B15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="21">
-        <v>25</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1">
-      <c r="B16" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="16">
-        <v>800</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="C27" s="31">
         <v>19</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="26">
-        <v>20</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="18">
-        <v>150</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="15"/>
-      <c r="C20" s="12"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
